--- a/Python/Computation/LaplaceEqu.xlsx
+++ b/Python/Computation/LaplaceEqu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomke\My Drive\Programs\courses\mainF25\Python\Computation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7522267-FD67-4277-8975-A5501CCBECB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FE3616-F4C9-4FAA-A494-71BF8C5EA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -276,34 +276,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>100</c:v>
@@ -419,76 +419,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.179882644578029</c:v>
+                  <c:v>25.52342159949584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.116412194823212</c:v>
+                  <c:v>35.945551548005454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.566455892191854</c:v>
+                  <c:v>41.171076502293388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.78506732539239</c:v>
+                  <c:v>44.368306027679928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.01883954511942</c:v>
+                  <c:v>46.732897028191061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.186056410241207</c:v>
+                  <c:v>48.867591990811967</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.709714085192729</c:v>
+                  <c:v>51.303752342651826</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.80528201562943</c:v>
+                  <c:v>54.95709349635564</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93.591345602637546</c:v>
+                  <c:v>62.211239448317009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94.136591835432654</c:v>
+                  <c:v>80.659369336392658</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94.481486423396447</c:v>
+                  <c:v>87.645313666553704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.648846671384746</c:v>
+                  <c:v>90.737875312181217</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94.649007366363378</c:v>
+                  <c:v>92.263350802572532</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94.481959499447569</c:v>
+                  <c:v>93.024014602903335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.137350689602115</c:v>
+                  <c:v>93.324957375918316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93.59234729326775</c:v>
+                  <c:v>93.282359387275719</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92.806469301983668</c:v>
+                  <c:v>92.921438194574137</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>91.711018171815539</c:v>
+                  <c:v>92.202706010626059</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90.187400284196059</c:v>
+                  <c:v>91.013109535470321</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>88.020141762588381</c:v>
+                  <c:v>89.121839840169571</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>84.786246074808247</c:v>
+                  <c:v>86.068539169781644</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>79.567433136464572</c:v>
+                  <c:v>80.876177978031265</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70.117117678157825</c:v>
+                  <c:v>71.230267042429887</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.180257542817856</c:v>
+                  <c:v>50.83716575224507</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -559,76 +559,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.603202477459206</c:v>
+                  <c:v>16.148036400161544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.719451254191021</c:v>
+                  <c:v>27.087539472975081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.364535012837393</c:v>
+                  <c:v>34.370213829460852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.555206600625809</c:v>
+                  <c:v>39.568955127343244</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.104500024382489</c:v>
+                  <c:v>43.695339783315688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.015961220610862</c:v>
+                  <c:v>47.43332015132853</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.847821690566093</c:v>
+                  <c:v>51.389884652444636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.920378174259184</c:v>
+                  <c:v>56.312909994335698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.423816664656698</c:v>
+                  <c:v>63.227997956637154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88.473835048210162</c:v>
+                  <c:v>72.780410794966485</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>89.140793038535605</c:v>
+                  <c:v>79.183488590878838</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.465160576463362</c:v>
+                  <c:v>83.042315736489698</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89.465469705768996</c:v>
+                  <c:v>85.291000813938936</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89.141703090132921</c:v>
+                  <c:v>86.507254171670596</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88.475294830027323</c:v>
+                  <c:v>86.992983294254032</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.425743548852395</c:v>
+                  <c:v>86.882600482936198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.922662027946203</c:v>
+                  <c:v>86.200282854325337</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.850330162589557</c:v>
+                  <c:v>84.875914284717595</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81.018546167235684</c:v>
+                  <c:v>82.727577504192126</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>77.107004795943183</c:v>
+                  <c:v>79.40544701055984</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>71.557473855251686</c:v>
+                  <c:v>74.275929376926385</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>63.36641467677552</c:v>
+                  <c:v>66.205752486633301</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.7208082163665</c:v>
+                  <c:v>53.207628685443126</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.603923594286833</c:v>
+                  <c:v>32.118357940956969</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -699,76 +699,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.51361656774101</c:v>
+                  <c:v>11.98101698532788</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.793885869192437</c:v>
+                  <c:v>21.886075313930551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.617335654102462</c:v>
+                  <c:v>29.65289704299245</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.967099145149106</c:v>
+                  <c:v>35.841475749817015</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.828419385398689</c:v>
+                  <c:v>41.045613554537681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.925930336031641</c:v>
+                  <c:v>45.779813728666525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.745719421867477</c:v>
+                  <c:v>50.508840445030714</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.605087511311396</c:v>
+                  <c:v>55.675895684431183</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.710199866557261</c:v>
+                  <c:v>61.606624148522002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.194616992414694</c:v>
+                  <c:v>68.049954179915886</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.143146062218165</c:v>
+                  <c:v>73.265069047543832</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.6059597036121</c:v>
+                  <c:v>76.956054660868773</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84.606400582545803</c:v>
+                  <c:v>79.350253746152802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84.14444396110747</c:v>
+                  <c:v>80.720216633255731</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.196698865965715</c:v>
+                  <c:v>81.256359230117539</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.712947823009642</c:v>
+                  <c:v>81.054064987287759</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.608344432245843</c:v>
+                  <c:v>80.120527597014515</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76.749296517512477</c:v>
+                  <c:v>78.372509334478394</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.929616323128698</c:v>
+                  <c:v>75.615334765217241</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67.831990888034753</c:v>
+                  <c:v>71.496020137786275</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60.970331839788258</c:v>
+                  <c:v>65.423645685108184</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.620015614679019</c:v>
+                  <c:v>56.46303209307888</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38.795820524059152</c:v>
+                  <c:v>43.275988623072394</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21.514644665216785</c:v>
+                  <c:v>24.428582174993167</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -839,76 +839,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.657567277920133</c:v>
+                  <c:v>9.8897255663825341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.325447715299504</c:v>
+                  <c:v>18.822464709648756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.344233959994042</c:v>
+                  <c:v>26.513297198592415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.867932792895445</c:v>
+                  <c:v>33.097779574968939</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.316713691247088</c:v>
+                  <c:v>38.86504889098164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.114235548131603</c:v>
+                  <c:v>44.130601168139549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.60468207229124</c:v>
+                  <c:v>49.188800732516185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.044708419334626</c:v>
+                  <c:v>54.274170944811665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.617929995871094</c:v>
+                  <c:v>59.471559230729369</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78.451920665002888</c:v>
+                  <c:v>64.546589155326174</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.631818703827193</c:v>
+                  <c:v>68.869639581436445</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80.209697367098443</c:v>
+                  <c:v>72.165443586387354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.210249852982244</c:v>
+                  <c:v>74.432626797247451</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.633445140004795</c:v>
+                  <c:v>75.765920825822548</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78.454529456453102</c:v>
+                  <c:v>76.257147064018042</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.621373325671357</c:v>
+                  <c:v>75.955816209705091</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74.048789312579999</c:v>
+                  <c:v>74.854378783306402</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70.609163888479557</c:v>
+                  <c:v>72.877480168876176</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66.118853505285799</c:v>
+                  <c:v>69.864555644607165</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.321187916455116</c:v>
+                  <c:v>65.539089060867582</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52.87198229544429</c:v>
+                  <c:v>59.459155907744147</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43.347590842711234</c:v>
+                  <c:v>50.946419562037086</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.327870886308631</c:v>
+                  <c:v>39.004515124771103</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.658854908188527</c:v>
+                  <c:v>22.319911709648537</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -979,76 +979,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.791433948309805</c:v>
+                  <c:v>8.7551343410859488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.506474172062745</c:v>
+                  <c:v>17.000287954688204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.566713912077539</c:v>
+                  <c:v>24.479399594691628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.844281997420282</c:v>
+                  <c:v>31.170487558374582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.456945816851835</c:v>
+                  <c:v>37.185247616774944</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.610353127260076</c:v>
+                  <c:v>42.687661139051926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.514837675660075</c:v>
+                  <c:v>47.840403470987674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.351921400539268</c:v>
+                  <c:v>52.759155565587619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.265673680371009</c:v>
+                  <c:v>57.457516376355571</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.364078340571453</c:v>
+                  <c:v>61.793826041221607</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.72323707793548</c:v>
+                  <c:v>65.50006024145523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76.391441805149896</c:v>
+                  <c:v>68.402060668216819</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.392083349797375</c:v>
+                  <c:v>70.447521848710608</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75.725125660109796</c:v>
+                  <c:v>71.652371987002823</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74.367107518144735</c:v>
+                  <c:v>72.04923723295957</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.269671693586687</c:v>
+                  <c:v>71.656503536090554</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69.356659403702466</c:v>
+                  <c:v>70.46262147614604</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.520040793373241</c:v>
+                  <c:v>68.417522572221174</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60.615713868728847</c:v>
+                  <c:v>65.425492013570221</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.462139255599155</c:v>
+                  <c:v>61.335935917988898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.848982010150976</c:v>
+                  <c:v>55.92692641358807</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.570609678460855</c:v>
+                  <c:v>48.858583291578825</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.509286077348573</c:v>
+                  <c:v>39.475502736780619</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.79292801361845</c:v>
+                  <c:v>25.846466061785996</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -1124,79 +1124,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.001953395547375</c:v>
+                  <c:v>8.1301909371044232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.342718525428893</c:v>
+                  <c:v>15.943605255538809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.57242183433398</c:v>
+                  <c:v>23.232776051104324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.486207917856248</c:v>
+                  <c:v>29.918588357557478</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.057198228013718</c:v>
+                  <c:v>36.016691125018895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.356222986656945</c:v>
+                  <c:v>41.593144915471257</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.49326417595065</c:v>
+                  <c:v>46.724626299349552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.58335268878713</c:v>
+                  <c:v>51.463062856194455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.729647110514819</c:v>
+                  <c:v>55.803982890326495</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.016340641799843</c:v>
+                  <c:v>59.669549334838301</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72.506429253594874</c:v>
+                  <c:v>62.933104380312543</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.241518154114488</c:v>
+                  <c:v>65.49361124804922</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.24222486840705</c:v>
+                  <c:v>67.30145186726449</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.508509645123809</c:v>
+                  <c:v>68.345285729363781</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.019677352157117</c:v>
+                  <c:v>68.629480500040486</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68.734050786252283</c:v>
+                  <c:v>68.156990840257777</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.588571085090436</c:v>
+                  <c:v>66.920849084062368</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61.49899437790431</c:v>
+                  <c:v>64.903397910724934</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.362126227424255</c:v>
+                  <c:v>62.083002710770046</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.062916644071258</c:v>
+                  <c:v>58.451444171511504</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42.491382457108479</c:v>
+                  <c:v>54.05340666926287</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33.576710433346818</c:v>
+                  <c:v>49.085034865579971</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.345813608514753</c:v>
+                  <c:v>44.192174449152581</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.003597732428119</c:v>
+                  <c:v>41.590355804141446</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,79 +1269,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.873940003621081</c:v>
+                  <c:v>7.8216545399666941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.290473024999269</c:v>
+                  <c:v>15.410559426028634</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.894644100241841</c:v>
+                  <c:v>22.588682023745584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.47165132935033</c:v>
+                  <c:v>29.253365332108732</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.930236103987227</c:v>
+                  <c:v>35.368566631253316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.264967251819812</c:v>
+                  <c:v>40.94222372744396</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.519578222189892</c:v>
+                  <c:v>46.000381434883977</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.759531554063557</c:v>
+                  <c:v>50.562865813595266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.054170470898725</c:v>
+                  <c:v>54.624101720464964</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.466132389158389</c:v>
+                  <c:v>58.145530891251312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.045504476099467</c:v>
+                  <c:v>61.067420421557102</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.826805700450421</c:v>
+                  <c:v>63.336057097031379</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.827553364096232</c:v>
+                  <c:v>64.917650665327528</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70.04770536916854</c:v>
+                  <c:v>65.796160146375101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68.469662233090006</c:v>
+                  <c:v>65.964814365701585</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.058828770898145</c:v>
+                  <c:v>65.419644128832246</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62.7650512711026</c:v>
+                  <c:v>64.159028647413038</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.525638750556702</c:v>
+                  <c:v>62.191006916998987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.271210143832576</c:v>
+                  <c:v>59.550629237674649</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.93628283598396</c:v>
+                  <c:v>56.332559586619496</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.477122272377386</c:v>
+                  <c:v>52.749534971763566</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.899177755326829</c:v>
+                  <c:v>49.235481078843662</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.293744518296073</c:v>
+                  <c:v>46.617506292787979</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.875677822808578</c:v>
+                  <c:v>46.322680953380519</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,79 +1414,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.203622475846412</c:v>
+                  <c:v>7.7454722414063379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.051053021299786</c:v>
+                  <c:v>15.287648130953942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.244647368879786</c:v>
+                  <c:v>22.457143036484638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.576263208255156</c:v>
+                  <c:v>29.136522684408337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.927975413821116</c:v>
+                  <c:v>35.260689465499794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.254753293755442</c:v>
+                  <c:v>40.805334549848382</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.561517640770354</c:v>
+                  <c:v>45.770198902908035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.882012512049933</c:v>
+                  <c:v>50.162191180313961</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.26235463766902</c:v>
+                  <c:v>53.982215881970092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.749473135730241</c:v>
+                  <c:v>57.219185738118114</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.383567776318642</c:v>
+                  <c:v>59.853098594736693</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>69.193508383705549</c:v>
+                  <c:v>61.863661218623456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.194273345800951</c:v>
+                  <c:v>63.235084085489092</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.385819544111996</c:v>
+                  <c:v>63.955103986316274</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.753084425609103</c:v>
+                  <c:v>64.012277094895069</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.267120132456952</c:v>
+                  <c:v>63.396161921450535</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60.887658800478263</c:v>
+                  <c:v>62.103170828224329</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.567716547030976</c:v>
+                  <c:v>60.149684966655421</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.261138017923699</c:v>
+                  <c:v>57.594834291387734</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.934158752717437</c:v>
+                  <c:v>54.57770364081901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37.581856993413581</c:v>
+                  <c:v>51.375963791393943</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.249282154200987</c:v>
+                  <c:v>48.489324126696523</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.054396989522278</c:v>
+                  <c:v>46.719373130451565</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.205398521862691</c:v>
+                  <c:v>47.082755126037199</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,79 +1559,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8897865280512498</c:v>
+                  <c:v>7.8721760444203106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.465933331752645</c:v>
+                  <c:v>15.536747358668684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.457246919629675</c:v>
+                  <c:v>22.814804874228507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.661525637065147</c:v>
+                  <c:v>29.573754255093846</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.951498244713306</c:v>
+                  <c:v>35.73099400675342</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.265476494344071</c:v>
+                  <c:v>41.246710327994464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.590697032415278</c:v>
+                  <c:v>46.111224650862155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.945637436319949</c:v>
+                  <c:v>50.33170178804825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.364750549508578</c:v>
+                  <c:v>53.921514702371134</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.886801921371472</c:v>
+                  <c:v>56.893970923484119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.546707937628838</c:v>
+                  <c:v>59.26017541990592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.370254362744902</c:v>
+                  <c:v>61.028459826461471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.371014294668669</c:v>
+                  <c:v>62.202011931801252</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67.548944851159064</c:v>
+                  <c:v>62.775051963582939</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65.890389238304024</c:v>
+                  <c:v>62.731278797341503</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63.369484116249481</c:v>
+                  <c:v>62.047925051127912</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>59.951245442107286</c:v>
+                  <c:v>60.7063188733351</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55.596853303583188</c:v>
+                  <c:v>58.708400830416963</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.271816581334086</c:v>
+                  <c:v>56.100171474038845</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.957637567987042</c:v>
+                  <c:v>53.006502274138612</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.6670788268259</c:v>
+                  <c:v>49.686541785983756</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.461847382656586</c:v>
+                  <c:v>46.62593918604037</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.469252018230289</c:v>
+                  <c:v>44.687582867761208</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.891548863328417</c:v>
+                  <c:v>45.288857980438181</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,79 +1704,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8898724387255239</c:v>
+                  <c:v>8.2060710541397111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.466098373872601</c:v>
+                  <c:v>16.171685856928988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.457482267677449</c:v>
+                  <c:v>23.690655638644998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.661820919771202</c:v>
+                  <c:v>30.611551416378248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.951842083966547</c:v>
+                  <c:v>36.84147608445776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.26585704657883</c:v>
+                  <c:v>42.337766016560593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.591102499808315</c:v>
+                  <c:v>47.094617177614666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.946056520553242</c:v>
+                  <c:v>51.130087485230263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.365172827750264</c:v>
+                  <c:v>54.476293154512511</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65.887218131729483</c:v>
+                  <c:v>57.173074331274478</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.547110168909256</c:v>
+                  <c:v>59.263214053221901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.370636150277278</c:v>
+                  <c:v>60.78603900596579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>68.37137062977574</c:v>
+                  <c:v>61.767537191016004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67.5492721162598</c:v>
+                  <c:v>62.209964789516718</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65.890685082535072</c:v>
+                  <c:v>62.088106582535204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63.369747287915807</c:v>
+                  <c:v>61.356305417082808</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>59.951475594395419</c:v>
+                  <c:v>59.964285902071246</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55.597050789035777</c:v>
+                  <c:v>57.87609771358035</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.271982248876718</c:v>
+                  <c:v>55.089798078330013</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.957772574097099</c:v>
+                  <c:v>51.660635743096584</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.667184469987362</c:v>
+                  <c:v>47.737010173104053</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.461924967751472</c:v>
+                  <c:v>43.639768317618113</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.46930275511437</c:v>
+                  <c:v>40.115837479352166</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.8915738016075423</c:v>
+                  <c:v>39.384986616960973</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,76 +1849,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.203872312566325</c:v>
+                  <c:v>8.7800168005323123</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.051532992262793</c:v>
+                  <c:v>17.252609158325146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.245331815272245</c:v>
+                  <c:v>25.163681451174959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.577121971114224</c:v>
+                  <c:v>32.339201396138904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.928975402146072</c:v>
+                  <c:v>38.684277722224536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.255860060025029</c:v>
+                  <c:v>44.166773484550838</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.562696868737675</c:v>
+                  <c:v>48.797758976625062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.883231337468715</c:v>
+                  <c:v>52.615990548737848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64.263582742683184</c:v>
+                  <c:v>55.678663208583174</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66.750683579794867</c:v>
+                  <c:v>58.056931425560826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.384737548586315</c:v>
+                  <c:v>59.831655716851984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>69.194618681993191</c:v>
+                  <c:v>61.083039825506617</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>69.195309604187329</c:v>
+                  <c:v>61.870264303367591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.386771244062032</c:v>
+                  <c:v>62.207359617714147</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.753944733954398</c:v>
+                  <c:v>62.053165325207424</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.267885413712605</c:v>
+                  <c:v>61.323308761997282</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60.888328051331413</c:v>
+                  <c:v>59.916965310027138</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.568290798115662</c:v>
+                  <c:v>57.740608596415967</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.261619743023331</c:v>
+                  <c:v>54.721165634006297</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.934551319128815</c:v>
+                  <c:v>50.80830013481949</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37.582164180088306</c:v>
+                  <c:v>45.96036245369001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.249507757024464</c:v>
+                  <c:v>40.079761099767424</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.054544526099193</c:v>
+                  <c:v>32.750697602977937</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.20547104168687</c:v>
+                  <c:v>22.135147712715288</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -1999,76 +1999,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.874330652053981</c:v>
+                  <c:v>9.6610003216091158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.291223553355991</c:v>
+                  <c:v>18.894424235666637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.895714409233321</c:v>
+                  <c:v>27.371404881242043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.472994267606566</c:v>
+                  <c:v>34.896232261390381</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.931799922810853</c:v>
+                  <c:v>41.388410514605184</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.266698072162704</c:v>
+                  <c:v>46.845878946372466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.521422364700982</c:v>
+                  <c:v>51.312105403686523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.76143760777218</c:v>
+                  <c:v>54.855793652329787</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.056091007562344</c:v>
+                  <c:v>57.563697798138222</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.468025265003476</c:v>
+                  <c:v>59.542540678808351</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.047333697280166</c:v>
+                  <c:v>60.921623267128425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.828541860192516</c:v>
+                  <c:v>61.842392468463416</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70.829173686046957</c:v>
+                  <c:v>62.421347517042506</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70.04919341161397</c:v>
+                  <c:v>62.694332805833113</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68.471007321921292</c:v>
+                  <c:v>62.592262395117032</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66.060025235712828</c:v>
+                  <c:v>61.965285901688205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62.766097559381542</c:v>
+                  <c:v>60.638277018116369</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.526536490590445</c:v>
+                  <c:v>58.446975641312093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.271963219276344</c:v>
+                  <c:v>55.244892484449778</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.936896524882222</c:v>
+                  <c:v>50.890153325337934</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.477602492350776</c:v>
+                  <c:v>45.215684807107181</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.899530445255365</c:v>
+                  <c:v>37.967718958649307</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.293975175890409</c:v>
+                  <c:v>28.671747130908756</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.875791207304419</c:v>
+                  <c:v>16.40481006983407</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -2149,76 +2149,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.002448194488835</c:v>
+                  <c:v>10.96920253520565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.343669226378694</c:v>
+                  <c:v>21.292102615451391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.573777688658886</c:v>
+                  <c:v>30.53049335706741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.487909214781666</c:v>
+                  <c:v>38.484932773186387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.059179409194648</c:v>
+                  <c:v>45.126102035240748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.35841577747793</c:v>
+                  <c:v>50.514925604148381</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.495600543858913</c:v>
+                  <c:v>54.747563379612131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65.585767470342404</c:v>
+                  <c:v>57.929853574912805</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.732080188823915</c:v>
+                  <c:v>60.176192019713554</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.018738600122731</c:v>
+                  <c:v>61.626261093486164</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72.508746474905053</c:v>
+                  <c:v>62.468234565416019</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.243717376643303</c:v>
+                  <c:v>62.941895816111455</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>73.244277240973787</c:v>
+                  <c:v>63.276769228435171</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72.51039435166939</c:v>
+                  <c:v>63.554787517516402</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.02138089170866</c:v>
+                  <c:v>63.654771899513484</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68.73556600281303</c:v>
+                  <c:v>63.305903962723988</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65.589896042650821</c:v>
+                  <c:v>62.222611496929844</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61.500131170341888</c:v>
+                  <c:v>60.162993716822456</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.363079803153809</c:v>
+                  <c:v>56.920298234598818</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.063693712554077</c:v>
+                  <c:v>52.290924371703568</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42.491990530175812</c:v>
+                  <c:v>46.043867694709114</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33.577157039878003</c:v>
+                  <c:v>37.903226894733187</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.346105707131795</c:v>
+                  <c:v>27.563490118823381</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.00374133398984</c:v>
+                  <c:v>14.812258088542814</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -2299,76 +2299,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.791985337688143</c:v>
+                  <c:v>12.923387554321325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.507533719278733</c:v>
+                  <c:v>24.773773435256128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.568225128470168</c:v>
+                  <c:v>34.972831469458399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.846178362104268</c:v>
+                  <c:v>43.386032075299461</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.459154255418213</c:v>
+                  <c:v>50.115115679959942</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.612797511024766</c:v>
+                  <c:v>55.339001770911679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>65.517442128904577</c:v>
+                  <c:v>59.232101088141903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.354613238261436</c:v>
+                  <c:v>61.938508276118853</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.268385843816901</c:v>
+                  <c:v>63.583532854443661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.36675124723061</c:v>
+                  <c:v>64.316612412652574</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.725819851975217</c:v>
+                  <c:v>64.381675413603546</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76.393892899363351</c:v>
+                  <c:v>64.178710060458158</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76.394370607986303</c:v>
+                  <c:v>64.187597926209946</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75.727225897526466</c:v>
+                  <c:v>64.591878903850542</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74.369005716448513</c:v>
+                  <c:v>65.164808196145046</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72.271359916028146</c:v>
+                  <c:v>65.379711941441116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69.358135537028289</c:v>
+                  <c:v>64.782144949557832</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.521307216863789</c:v>
+                  <c:v>63.061086700282821</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60.616776139690089</c:v>
+                  <c:v>59.981516124326305</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.463004886365141</c:v>
+                  <c:v>55.308659132825007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.849659395829519</c:v>
+                  <c:v>48.765070809500983</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.571107218552427</c:v>
+                  <c:v>40.037427581620626</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.509611518872642</c:v>
+                  <c:v>28.866488652163497</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.793088029009285</c:v>
+                  <c:v>15.280656210111511</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -2449,76 +2449,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.658120224555159</c:v>
+                  <c:v>15.9503005512905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.326510402684473</c:v>
+                  <c:v>29.90633099365278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.345749824238794</c:v>
+                  <c:v>41.200429102717365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.869835152032643</c:v>
+                  <c:v>49.970506537909017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.318929243604224</c:v>
+                  <c:v>56.608455926202836</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.116687893782156</c:v>
+                  <c:v>61.492881301378688</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.607295042956835</c:v>
+                  <c:v>64.902252999458682</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.047409037411285</c:v>
+                  <c:v>67.007392213837477</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.620650928374204</c:v>
+                  <c:v>67.901609718975308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78.454602088086631</c:v>
+                  <c:v>67.673735938478387</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.634409543299952</c:v>
+                  <c:v>66.561885258823409</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80.212155925898401</c:v>
+                  <c:v>65.202416849816132</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.212543874798698</c:v>
+                  <c:v>64.701803986836978</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.635551387216879</c:v>
+                  <c:v>65.459135918862643</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78.456432899569933</c:v>
+                  <c:v>67.03174510360526</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.623066050800233</c:v>
+                  <c:v>68.264943138357737</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74.050269254232887</c:v>
+                  <c:v>68.464214277363311</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70.610433488890308</c:v>
+                  <c:v>67.316841715544626</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66.119918390227454</c:v>
+                  <c:v>64.635286243730562</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.322055663171525</c:v>
+                  <c:v>60.19651611528662</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52.872661352380319</c:v>
+                  <c:v>53.669851612811968</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43.348089644526588</c:v>
+                  <c:v>44.614583263062883</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.32819719208419</c:v>
+                  <c:v>32.584178887767692</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.659015376294512</c:v>
+                  <c:v>17.443815358724802</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -2599,76 +2599,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.5141125116746</c:v>
+                  <c:v>20.971262387302186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.794839170449606</c:v>
+                  <c:v>37.700465960174782</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.618695675752697</c:v>
+                  <c:v>49.951567346800239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.96880611202819</c:v>
+                  <c:v>58.686514160536056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.830407532336139</c:v>
+                  <c:v>64.854622379465496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.928131079549829</c:v>
+                  <c:v>69.121027051911426</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.748064361249817</c:v>
+                  <c:v>71.875774675111487</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.607511096731969</c:v>
+                  <c:v>73.286275132688374</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.712641612691385</c:v>
+                  <c:v>73.340810988171739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83.197023161004836</c:v>
+                  <c:v>71.913841522246415</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.145470782066027</c:v>
+                  <c:v>68.988706297284395</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84.608165537659517</c:v>
+                  <c:v>65.366265942006038</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84.608458586281529</c:v>
+                  <c:v>63.957083132188913</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84.146333302756858</c:v>
+                  <c:v>65.510168568575409</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83.198406096115576</c:v>
+                  <c:v>69.237195145434626</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.714465889767197</c:v>
+                  <c:v>72.183265315149455</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.609671538738311</c:v>
+                  <c:v>73.492165229215601</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76.750434912989192</c:v>
+                  <c:v>73.106101726075636</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.93057110883143</c:v>
+                  <c:v>71.045686046318721</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67.832768906036918</c:v>
+                  <c:v>67.171782574544636</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60.970940698647524</c:v>
+                  <c:v>61.102856859953391</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.620462891165218</c:v>
+                  <c:v>52.166604715419396</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38.796113166208471</c:v>
+                  <c:v>39.411669046359592</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21.514788608982787</c:v>
+                  <c:v>21.910378235197179</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -2749,76 +2749,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.603583501632773</c:v>
+                  <c:v>30.234119099345669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.720183811738842</c:v>
+                  <c:v>49.972442194210402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.365580291615444</c:v>
+                  <c:v>62.218508498645662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.556518709737531</c:v>
+                  <c:v>69.968925501768382</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.106028422205</c:v>
+                  <c:v>75.00198297837062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.017653163453389</c:v>
+                  <c:v>78.260255598456695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.849624551384977</c:v>
+                  <c:v>80.192914891655562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.922241505393657</c:v>
+                  <c:v>80.92045076118616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.425693910067153</c:v>
+                  <c:v>80.260813954261863</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88.475684845614921</c:v>
+                  <c:v>77.65138928296841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>89.14258008673734</c:v>
+                  <c:v>72.11210074797944</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.466856075115345</c:v>
+                  <c:v>63.316129315783471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89.467051401662744</c:v>
+                  <c:v>60.249380763855228</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89.143154984436634</c:v>
+                  <c:v>63.386572584780311</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88.476606614248368</c:v>
+                  <c:v>72.222950095028025</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.426909843851348</c:v>
+                  <c:v>77.738151667137714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85.923681500881031</c:v>
+                  <c:v>80.214527439947645</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.851204592375481</c:v>
+                  <c:v>80.569223147494853</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81.019279521292773</c:v>
+                  <c:v>79.269150613532943</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>77.107602370978356</c:v>
+                  <c:v>76.341721136051945</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>71.557941523732481</c:v>
+                  <c:v>71.402915182018575</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>63.366758269500394</c:v>
+                  <c:v>63.537115739548383</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.721033060736268</c:v>
+                  <c:v>50.985401119235668</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.604034217882027</c:v>
+                  <c:v>30.78599606929788</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -2894,76 +2894,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.180095553375821</c:v>
+                  <c:v>49.992668446142424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.11682163689099</c:v>
+                  <c:v>69.73651339858958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.567040242179658</c:v>
+                  <c:v>78.980882510776553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.785800964454921</c:v>
+                  <c:v>83.968429918415652</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.019694223509859</c:v>
+                  <c:v>86.923817273325426</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.187002623177619</c:v>
+                  <c:v>88.724747492075636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.710722376920273</c:v>
+                  <c:v>89.714796104414162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.806324140381562</c:v>
+                  <c:v>89.941390931781399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93.59239548895394</c:v>
+                  <c:v>89.130177937508449</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94.137626319991483</c:v>
+                  <c:v>86.318362477892848</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94.482485740227332</c:v>
+                  <c:v>78.491735235288544</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.649794700388611</c:v>
+                  <c:v>55.536329576173827</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94.649891660232981</c:v>
+                  <c:v>50.337307274211099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94.482771119586687</c:v>
+                  <c:v>55.563376200913744</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94.138083889186078</c:v>
+                  <c:v>78.529488463309391</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93.592999089294892</c:v>
+                  <c:v>86.331499157791214</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92.807038978482353</c:v>
+                  <c:v>89.058238018709048</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>91.711506753953444</c:v>
+                  <c:v>89.686818552025045</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90.187810018636867</c:v>
+                  <c:v>89.119719096088488</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>88.020475633798839</c:v>
+                  <c:v>87.522827440413181</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>84.786507380783831</c:v>
+                  <c:v>84.629804859489013</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>79.567625141023058</c:v>
+                  <c:v>79.593427938591944</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70.117243350892096</c:v>
+                  <c:v>70.206758495146573</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.180319392193532</c:v>
+                  <c:v>50.248188641111113</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -3072,13 +3072,13 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>100</c:v>
@@ -6434,41 +6434,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F7">
         <v>4</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E8">
         <v>2</v>
       </c>
@@ -6506,12 +6506,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="e">
-        <f t="shared" ref="F8:F14" ca="1" si="1">AVERAGE(F8,E9,G9,F10)</f>
+        <f t="shared" ref="F9:F14" ca="1" si="1">AVERAGE(F8,E9,G9,F10)</f>
         <v>#REF!</v>
       </c>
       <c r="G9" t="e">
@@ -6530,7 +6530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E10">
         <v>2</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>#REF!</v>
       </c>
       <c r="G10" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">AVERAGE(G9,F10,H10,G11)</f>
         <v>#REF!</v>
       </c>
       <c r="H10" t="e">
@@ -6554,7 +6554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>2</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E12">
         <v>2</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E13">
         <v>2</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E14">
         <v>2</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E15">
         <v>2</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F16">
         <v>4</v>
       </c>
@@ -6697,15 +6697,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A28" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6772,1948 +6772,1948 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>A1</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <f ca="1">AVERAGE(B1,A2,C2,B3)</f>
-        <v>50.179882644578029</v>
+        <v>25.52342159949584</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:S16" ca="1" si="1">AVERAGE(C1,B2,D2,C3)</f>
-        <v>30.603202477459206</v>
+        <v>16.148036400161544</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="1"/>
-        <v>21.51361656774101</v>
+        <v>11.98101698532788</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="1"/>
-        <v>16.657567277920133</v>
+        <v>9.8897255663825341</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="1"/>
-        <v>13.791433948309805</v>
+        <v>8.7551343410859488</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>12.001953395547375</v>
+        <v>8.1301909371044232</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>10.873940003621081</v>
+        <v>7.8216545399666941</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>10.203622475846412</v>
+        <v>7.7454722414063379</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8897865280512498</v>
+        <v>7.8721760444203106</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8898724387255239</v>
+        <v>8.2060710541397111</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="1"/>
-        <v>10.203872312566325</v>
+        <v>8.7800168005323123</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="1"/>
-        <v>10.874330652053981</v>
+        <v>9.6610003216091158</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="1"/>
-        <v>12.002448194488835</v>
+        <v>10.96920253520565</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="1"/>
-        <v>13.791985337688143</v>
+        <v>12.923387554321325</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="1"/>
-        <v>16.658120224555159</v>
+        <v>15.9503005512905</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="1"/>
-        <v>21.5141125116746</v>
+        <v>20.971262387302186</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="1"/>
-        <v>30.603583501632773</v>
+        <v>30.234119099345669</v>
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="1"/>
-        <v>50.180095553375821</v>
+        <v>49.992668446142424</v>
       </c>
       <c r="T2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A25" si="2">A2</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B25" ca="1" si="3">AVERAGE(B2,A3,C3,B4)</f>
-        <v>70.116412194823212</v>
+        <v>35.945551548005454</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>50.719451254191021</v>
+        <v>27.087539472975081</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>38.793885869192437</v>
+        <v>21.886075313930551</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>31.325447715299504</v>
+        <v>18.822464709648756</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>26.506474172062745</v>
+        <v>17.000287954688204</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>23.342718525428893</v>
+        <v>15.943605255538809</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>21.290473024999269</v>
+        <v>15.410559426028634</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>20.051053021299786</v>
+        <v>15.287648130953942</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="1"/>
-        <v>19.465933331752645</v>
+        <v>15.536747358668684</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>19.466098373872601</v>
+        <v>16.171685856928988</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="1"/>
-        <v>20.051532992262793</v>
+        <v>17.252609158325146</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>21.291223553355991</v>
+        <v>18.894424235666637</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="1"/>
-        <v>23.343669226378694</v>
+        <v>21.292102615451391</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="1"/>
-        <v>26.507533719278733</v>
+        <v>24.773773435256128</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="1"/>
-        <v>31.326510402684473</v>
+        <v>29.90633099365278</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="1"/>
-        <v>38.794839170449606</v>
+        <v>37.700465960174782</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="1"/>
-        <v>50.720183811738842</v>
+        <v>49.972442194210402</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="1"/>
-        <v>70.11682163689099</v>
+        <v>69.73651339858958</v>
       </c>
       <c r="T3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="3"/>
-        <v>79.566455892191854</v>
+        <v>41.171076502293388</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>63.364535012837393</v>
+        <v>34.370213829460852</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>51.617335654102462</v>
+        <v>29.65289704299245</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>43.344233959994042</v>
+        <v>26.513297198592415</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>37.566713912077539</v>
+        <v>24.479399594691628</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>33.57242183433398</v>
+        <v>23.232776051104324</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>30.894644100241841</v>
+        <v>22.588682023745584</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>29.244647368879786</v>
+        <v>22.457143036484638</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="1"/>
-        <v>28.457246919629675</v>
+        <v>22.814804874228507</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>28.457482267677449</v>
+        <v>23.690655638644998</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>29.245331815272245</v>
+        <v>25.163681451174959</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>30.895714409233321</v>
+        <v>27.371404881242043</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="1"/>
-        <v>33.573777688658886</v>
+        <v>30.53049335706741</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="1"/>
-        <v>37.568225128470168</v>
+        <v>34.972831469458399</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="1"/>
-        <v>43.345749824238794</v>
+        <v>41.200429102717365</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>51.618695675752697</v>
+        <v>49.951567346800239</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
-        <v>63.365580291615444</v>
+        <v>62.218508498645662</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="1"/>
-        <v>79.567040242179658</v>
+        <v>78.980882510776553</v>
       </c>
       <c r="T4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="3"/>
-        <v>84.78506732539239</v>
+        <v>44.368306027679928</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>71.555206600625809</v>
+        <v>39.568955127343244</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>60.967099145149106</v>
+        <v>35.841475749817015</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>52.867932792895445</v>
+        <v>33.097779574968939</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>46.844281997420282</v>
+        <v>31.170487558374582</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>42.486207917856248</v>
+        <v>29.918588357557478</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>39.47165132935033</v>
+        <v>29.253365332108732</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>37.576263208255156</v>
+        <v>29.136522684408337</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.661525637065147</v>
+        <v>29.573754255093846</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.661820919771202</v>
+        <v>30.611551416378248</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="1"/>
-        <v>37.577121971114224</v>
+        <v>32.339201396138904</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>39.472994267606566</v>
+        <v>34.896232261390381</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>42.487909214781666</v>
+        <v>38.484932773186387</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="1"/>
-        <v>46.846178362104268</v>
+        <v>43.386032075299461</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="1"/>
-        <v>52.869835152032643</v>
+        <v>49.970506537909017</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>60.96880611202819</v>
+        <v>58.686514160536056</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>71.556518709737531</v>
+        <v>69.968925501768382</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="1"/>
-        <v>84.785800964454921</v>
+        <v>83.968429918415652</v>
       </c>
       <c r="T5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="3"/>
-        <v>88.01883954511942</v>
+        <v>46.732897028191061</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>77.104500024382489</v>
+        <v>43.695339783315688</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>67.828419385398689</v>
+        <v>41.045613554537681</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>60.316713691247088</v>
+        <v>38.86504889098164</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>54.456945816851835</v>
+        <v>37.185247616774944</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>50.057198228013718</v>
+        <v>36.016691125018895</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>46.930236103987227</v>
+        <v>35.368566631253316</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>44.927975413821116</v>
+        <v>35.260689465499794</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>43.951498244713306</v>
+        <v>35.73099400675342</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>43.951842083966547</v>
+        <v>36.84147608445776</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="1"/>
-        <v>44.928975402146072</v>
+        <v>38.684277722224536</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>46.931799922810853</v>
+        <v>41.388410514605184</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="1"/>
-        <v>50.059179409194648</v>
+        <v>45.126102035240748</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="1"/>
-        <v>54.459154255418213</v>
+        <v>50.115115679959942</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="1"/>
-        <v>60.318929243604224</v>
+        <v>56.608455926202836</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>67.830407532336139</v>
+        <v>64.854622379465496</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>77.106028422205</v>
+        <v>75.00198297837062</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="1"/>
-        <v>88.019694223509859</v>
+        <v>86.923817273325426</v>
       </c>
       <c r="T6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="3"/>
-        <v>90.186056410241207</v>
+        <v>48.867591990811967</v>
       </c>
       <c r="C7">
         <f ca="1">AVERAGE(C6,B7,D7,C8)</f>
-        <v>81.015961220610862</v>
+        <v>47.43332015132853</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>72.925930336031641</v>
+        <v>45.779813728666525</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>66.114235548131603</v>
+        <v>44.130601168139549</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>60.610353127260076</v>
+        <v>42.687661139051926</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>56.356222986656945</v>
+        <v>41.593144915471257</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>53.264967251819812</v>
+        <v>40.94222372744396</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>51.254753293755442</v>
+        <v>40.805334549848382</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>50.265476494344071</v>
+        <v>41.246710327994464</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>50.26585704657883</v>
+        <v>42.337766016560593</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="1"/>
-        <v>51.255860060025029</v>
+        <v>44.166773484550838</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>53.266698072162704</v>
+        <v>46.845878946372466</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="1"/>
-        <v>56.35841577747793</v>
+        <v>50.514925604148381</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="1"/>
-        <v>60.612797511024766</v>
+        <v>55.339001770911679</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="1"/>
-        <v>66.116687893782156</v>
+        <v>61.492881301378688</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>72.928131079549829</v>
+        <v>69.121027051911426</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
-        <v>81.017653163453389</v>
+        <v>78.260255598456695</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="1"/>
-        <v>90.187002623177619</v>
+        <v>88.724747492075636</v>
       </c>
       <c r="T7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="3"/>
-        <v>91.709714085192729</v>
+        <v>51.303752342651826</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>83.847821690566093</v>
+        <v>51.389884652444636</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.745719421867477</v>
+        <v>50.508840445030714</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>70.60468207229124</v>
+        <v>49.188800732516185</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>65.514837675660075</v>
+        <v>47.840403470987674</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>61.49326417595065</v>
+        <v>46.724626299349552</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>58.519578222189892</v>
+        <v>46.000381434883977</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>56.561517640770354</v>
+        <v>45.770198902908035</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>55.590697032415278</v>
+        <v>46.111224650862155</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>55.591102499808315</v>
+        <v>47.094617177614666</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="1"/>
-        <v>56.562696868737675</v>
+        <v>48.797758976625062</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>58.521422364700982</v>
+        <v>51.312105403686523</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="1"/>
-        <v>61.495600543858913</v>
+        <v>54.747563379612131</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="1"/>
-        <v>65.517442128904577</v>
+        <v>59.232101088141903</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="1"/>
-        <v>70.607295042956835</v>
+        <v>64.902252999458682</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.748064361249817</v>
+        <v>71.875774675111487</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>83.849624551384977</v>
+        <v>80.192914891655562</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="1"/>
-        <v>91.710722376920273</v>
+        <v>89.714796104414162</v>
       </c>
       <c r="T8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>92.80528201562943</v>
+        <v>54.95709349635564</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>85.920378174259184</v>
+        <v>56.312909994335698</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>79.605087511311396</v>
+        <v>55.675895684431183</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>74.044708419334626</v>
+        <v>54.274170944811665</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>69.351921400539268</v>
+        <v>52.759155565587619</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>65.58335268878713</v>
+        <v>51.463062856194455</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>62.759531554063557</v>
+        <v>50.562865813595266</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>60.882012512049933</v>
+        <v>50.162191180313961</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>59.945637436319949</v>
+        <v>50.33170178804825</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>59.946056520553242</v>
+        <v>51.130087485230263</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="1"/>
-        <v>60.883231337468715</v>
+        <v>52.615990548737848</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>62.76143760777218</v>
+        <v>54.855793652329787</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="1"/>
-        <v>65.585767470342404</v>
+        <v>57.929853574912805</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="1"/>
-        <v>69.354613238261436</v>
+        <v>61.938508276118853</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="1"/>
-        <v>74.047409037411285</v>
+        <v>67.007392213837477</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>79.607511096731969</v>
+        <v>73.286275132688374</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>85.922241505393657</v>
+        <v>80.92045076118616</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="1"/>
-        <v>92.806324140381562</v>
+        <v>89.941390931781399</v>
       </c>
       <c r="T9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>93.591345602637546</v>
+        <v>62.211239448317009</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>87.423816664656698</v>
+        <v>63.227997956637154</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>81.710199866557261</v>
+        <v>61.606624148522002</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>76.617929995871094</v>
+        <v>59.471559230729369</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>72.265673680371009</v>
+        <v>57.457516376355571</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>68.729647110514819</v>
+        <v>55.803982890326495</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>66.054170470898725</v>
+        <v>54.624101720464964</v>
       </c>
       <c r="I10">
         <f ca="1">AVERAGE(I9,H10,J10,I11)</f>
-        <v>64.26235463766902</v>
+        <v>53.982215881970092</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>63.364750549508578</v>
+        <v>53.921514702371134</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>63.365172827750264</v>
+        <v>54.476293154512511</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="1"/>
-        <v>64.263582742683184</v>
+        <v>55.678663208583174</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>66.056091007562344</v>
+        <v>57.563697798138222</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="1"/>
-        <v>68.732080188823915</v>
+        <v>60.176192019713554</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="1"/>
-        <v>72.268385843816901</v>
+        <v>63.583532854443661</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="1"/>
-        <v>76.620650928374204</v>
+        <v>67.901609718975308</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>81.712641612691385</v>
+        <v>73.340810988171739</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>87.425693910067153</v>
+        <v>80.260813954261863</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="1"/>
-        <v>93.59239548895394</v>
+        <v>89.130177937508449</v>
       </c>
       <c r="T10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>100</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>94.136591835432654</v>
+        <v>80.659369336392658</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>88.473835048210162</v>
+        <v>72.780410794966485</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>83.194616992414694</v>
+        <v>68.049954179915886</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>78.451920665002888</v>
+        <v>64.546589155326174</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>74.364078340571453</v>
+        <v>61.793826041221607</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>71.016340641799843</v>
+        <v>59.669549334838301</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>68.466132389158389</v>
+        <v>58.145530891251312</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>66.749473135730241</v>
+        <v>57.219185738118114</v>
       </c>
       <c r="J11">
-        <f t="shared" ca="1" si="1"/>
-        <v>65.886801921371472</v>
+        <f ca="1">AVERAGE(J10,I11,K11,J12)</f>
+        <v>56.893970923484119</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>65.887218131729483</v>
+        <v>57.173074331274478</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="1"/>
-        <v>66.750683579794867</v>
+        <v>58.056931425560826</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>68.468025265003476</v>
+        <v>59.542540678808351</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="1"/>
-        <v>71.018738600122731</v>
+        <v>61.626261093486164</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="1"/>
-        <v>74.36675124723061</v>
+        <v>64.316612412652574</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="1"/>
-        <v>78.454602088086631</v>
+        <v>67.673735938478387</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>83.197023161004836</v>
+        <v>71.913841522246415</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>88.475684845614921</v>
+        <v>77.65138928296841</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="1"/>
-        <v>94.137626319991483</v>
+        <v>86.318362477892848</v>
       </c>
       <c r="T11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="3"/>
-        <v>94.481486423396447</v>
+        <v>87.645313666553704</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>89.140793038535605</v>
+        <v>79.183488590878838</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>84.143146062218165</v>
+        <v>73.265069047543832</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>79.631818703827193</v>
+        <v>68.869639581436445</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>75.72323707793548</v>
+        <v>65.50006024145523</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>72.506429253594874</v>
+        <v>62.933104380312543</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>70.045504476099467</v>
+        <v>61.067420421557102</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>68.383567776318642</v>
+        <v>59.853098594736693</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>67.546707937628838</v>
+        <v>59.26017541990592</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>67.547110168909256</v>
+        <v>59.263214053221901</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="1"/>
-        <v>68.384737548586315</v>
+        <v>59.831655716851984</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>70.047333697280166</v>
+        <v>60.921623267128425</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="1"/>
-        <v>72.508746474905053</v>
+        <v>62.468234565416019</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="1"/>
-        <v>75.725819851975217</v>
+        <v>64.381675413603546</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="1"/>
-        <v>79.634409543299952</v>
+        <v>66.561885258823409</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>84.145470782066027</v>
+        <v>68.988706297284395</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>89.14258008673734</v>
+        <v>72.11210074797944</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="1"/>
-        <v>94.482485740227332</v>
+        <v>78.491735235288544</v>
       </c>
       <c r="T12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>100</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="3"/>
-        <v>94.648846671384746</v>
+        <v>90.737875312181217</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>89.465160576463362</v>
+        <v>83.042315736489698</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>84.6059597036121</v>
+        <v>76.956054660868773</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>80.209697367098443</v>
+        <v>72.165443586387354</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>76.391441805149896</v>
+        <v>68.402060668216819</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>73.241518154114488</v>
+        <v>65.49361124804922</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>70.826805700450421</v>
+        <v>63.336057097031379</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>69.193508383705549</v>
+        <v>61.863661218623456</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>68.370254362744902</v>
+        <v>61.028459826461471</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>68.370636150277278</v>
+        <v>60.78603900596579</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="1"/>
-        <v>69.194618681993191</v>
+        <v>61.083039825506617</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>70.828541860192516</v>
+        <v>61.842392468463416</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="1"/>
-        <v>73.243717376643303</v>
+        <v>62.941895816111455</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="1"/>
-        <v>76.393892899363351</v>
+        <v>64.178710060458158</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="1"/>
-        <v>80.212155925898401</v>
+        <v>65.202416849816132</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>84.608165537659517</v>
+        <v>65.366265942006038</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
-        <v>89.466856075115345</v>
+        <v>63.316129315783471</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="1"/>
-        <v>94.649794700388611</v>
+        <v>55.536329576173827</v>
       </c>
       <c r="T13">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="3"/>
-        <v>94.649007366363378</v>
+        <v>92.263350802572532</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>89.465469705768996</v>
+        <v>85.291000813938936</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>84.606400582545803</v>
+        <v>79.350253746152802</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>80.210249852982244</v>
+        <v>74.432626797247451</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>76.392083349797375</v>
+        <v>70.447521848710608</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>73.24222486840705</v>
+        <v>67.30145186726449</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>70.827553364096232</v>
+        <v>64.917650665327528</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>69.194273345800951</v>
+        <v>63.235084085489092</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>68.371014294668669</v>
+        <v>62.202011931801252</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>68.37137062977574</v>
+        <v>61.767537191016004</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="1"/>
-        <v>69.195309604187329</v>
+        <v>61.870264303367591</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="1"/>
-        <v>70.829173686046957</v>
+        <v>62.421347517042506</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="1"/>
-        <v>73.244277240973787</v>
+        <v>63.276769228435171</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="1"/>
-        <v>76.394370607986303</v>
+        <v>64.187597926209946</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="1"/>
-        <v>80.212543874798698</v>
+        <v>64.701803986836978</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>84.608458586281529</v>
+        <v>63.957083132188913</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="1"/>
-        <v>89.467051401662744</v>
+        <v>60.249380763855228</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="1"/>
-        <v>94.649891660232981</v>
+        <v>50.337307274211099</v>
       </c>
       <c r="T14">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="3"/>
-        <v>94.481959499447569</v>
+        <v>93.024014602903335</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>89.141703090132921</v>
+        <v>86.507254171670596</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>84.14444396110747</v>
+        <v>80.720216633255731</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>79.633445140004795</v>
+        <v>75.765920825822548</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>75.725125660109796</v>
+        <v>71.652371987002823</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>72.508509645123809</v>
+        <v>68.345285729363781</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>70.04770536916854</v>
+        <v>65.796160146375101</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>68.385819544111996</v>
+        <v>63.955103986316274</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="1"/>
-        <v>67.548944851159064</v>
+        <v>62.775051963582939</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>67.5492721162598</v>
+        <v>62.209964789516718</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="1"/>
-        <v>68.386771244062032</v>
+        <v>62.207359617714147</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="1"/>
-        <v>70.04919341161397</v>
+        <v>62.694332805833113</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="1"/>
-        <v>72.51039435166939</v>
+        <v>63.554787517516402</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="1"/>
-        <v>75.727225897526466</v>
+        <v>64.591878903850542</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="1"/>
-        <v>79.635551387216879</v>
+        <v>65.459135918862643</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>84.146333302756858</v>
+        <v>65.510168568575409</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="1"/>
-        <v>89.143154984436634</v>
+        <v>63.386572584780311</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="1"/>
-        <v>94.482771119586687</v>
+        <v>55.563376200913744</v>
       </c>
       <c r="T15">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="3"/>
-        <v>94.137350689602115</v>
+        <v>93.324957375918316</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>88.475294830027323</v>
+        <v>86.992983294254032</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>83.196698865965715</v>
+        <v>81.256359230117539</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>78.454529456453102</v>
+        <v>76.257147064018042</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>74.367107518144735</v>
+        <v>72.04923723295957</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>71.019677352157117</v>
+        <v>68.629480500040486</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>68.469662233090006</v>
+        <v>65.964814365701585</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>66.753084425609103</v>
+        <v>64.012277094895069</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>65.890389238304024</v>
+        <v>62.731278797341503</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>65.890685082535072</v>
+        <v>62.088106582535204</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="1"/>
-        <v>66.753944733954398</v>
+        <v>62.053165325207424</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="1"/>
-        <v>68.471007321921292</v>
+        <v>62.592262395117032</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="1"/>
-        <v>71.02138089170866</v>
+        <v>63.654771899513484</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="1"/>
-        <v>74.369005716448513</v>
+        <v>65.164808196145046</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="1"/>
-        <v>78.456432899569933</v>
+        <v>67.03174510360526</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>83.198406096115576</v>
+        <v>69.237195145434626</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="1"/>
-        <v>88.476606614248368</v>
+        <v>72.222950095028025</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="1"/>
-        <v>94.138083889186078</v>
+        <v>78.529488463309391</v>
       </c>
       <c r="T16">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="3"/>
-        <v>93.59234729326775</v>
+        <v>93.282359387275719</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17:C25" ca="1" si="4">AVERAGE(C16,B17,D17,C18)</f>
-        <v>87.425743548852395</v>
+        <v>86.882600482936198</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D25" ca="1" si="5">AVERAGE(D16,C17,E17,D18)</f>
-        <v>81.712947823009642</v>
+        <v>81.054064987287759</v>
       </c>
       <c r="E17">
         <f t="shared" ref="E17:E25" ca="1" si="6">AVERAGE(E16,D17,F17,E18)</f>
-        <v>76.621373325671357</v>
+        <v>75.955816209705091</v>
       </c>
       <c r="F17">
         <f t="shared" ref="F17:F25" ca="1" si="7">AVERAGE(F16,E17,G17,F18)</f>
-        <v>72.269671693586687</v>
+        <v>71.656503536090554</v>
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G25" ca="1" si="8">AVERAGE(G16,F17,H17,G18)</f>
-        <v>68.734050786252283</v>
+        <v>68.156990840257777</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:H25" ca="1" si="9">AVERAGE(H16,G17,I17,H18)</f>
-        <v>66.058828770898145</v>
+        <v>65.419644128832246</v>
       </c>
       <c r="I17">
         <f t="shared" ref="I17:I25" ca="1" si="10">AVERAGE(I16,H17,J17,I18)</f>
-        <v>64.267120132456952</v>
+        <v>63.396161921450535</v>
       </c>
       <c r="J17">
         <f t="shared" ref="J17:J25" ca="1" si="11">AVERAGE(J16,I17,K17,J18)</f>
-        <v>63.369484116249481</v>
+        <v>62.047925051127912</v>
       </c>
       <c r="K17">
         <f t="shared" ref="K17:K25" ca="1" si="12">AVERAGE(K16,J17,L17,K18)</f>
-        <v>63.369747287915807</v>
+        <v>61.356305417082808</v>
       </c>
       <c r="L17">
         <f t="shared" ref="L17:L25" ca="1" si="13">AVERAGE(L16,K17,M17,L18)</f>
-        <v>64.267885413712605</v>
+        <v>61.323308761997282</v>
       </c>
       <c r="M17">
         <f t="shared" ref="M17:M25" ca="1" si="14">AVERAGE(M16,L17,N17,M18)</f>
-        <v>66.060025235712828</v>
+        <v>61.965285901688205</v>
       </c>
       <c r="N17">
         <f t="shared" ref="N17:N25" ca="1" si="15">AVERAGE(N16,M17,O17,N18)</f>
-        <v>68.73556600281303</v>
+        <v>63.305903962723988</v>
       </c>
       <c r="O17">
         <f t="shared" ref="O17:O25" ca="1" si="16">AVERAGE(O16,N17,P17,O18)</f>
-        <v>72.271359916028146</v>
+        <v>65.379711941441116</v>
       </c>
       <c r="P17">
         <f t="shared" ref="P17:P25" ca="1" si="17">AVERAGE(P16,O17,Q17,P18)</f>
-        <v>76.623066050800233</v>
+        <v>68.264943138357737</v>
       </c>
       <c r="Q17">
         <f t="shared" ref="Q17:Q25" ca="1" si="18">AVERAGE(Q16,P17,R17,Q18)</f>
-        <v>81.714465889767197</v>
+        <v>72.183265315149455</v>
       </c>
       <c r="R17">
         <f t="shared" ref="R17:R25" ca="1" si="19">AVERAGE(R16,Q17,S17,R18)</f>
-        <v>87.426909843851348</v>
+        <v>77.738151667137714</v>
       </c>
       <c r="S17">
         <f t="shared" ref="S17:S25" ca="1" si="20">AVERAGE(S16,R17,T17,S18)</f>
-        <v>93.592999089294892</v>
+        <v>86.331499157791214</v>
       </c>
       <c r="T17">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="3"/>
-        <v>92.806469301983668</v>
+        <v>92.921438194574137</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="4"/>
-        <v>85.922662027946203</v>
+        <v>86.200282854325337</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
-        <v>79.608344432245843</v>
+        <v>80.120527597014515</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="6"/>
-        <v>74.048789312579999</v>
+        <v>74.854378783306402</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="7"/>
-        <v>69.356659403702466</v>
+        <v>70.46262147614604</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="8"/>
-        <v>65.588571085090436</v>
+        <v>66.920849084062368</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="9"/>
-        <v>62.7650512711026</v>
+        <v>64.159028647413038</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="10"/>
-        <v>60.887658800478263</v>
+        <v>62.103170828224329</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="11"/>
-        <v>59.951245442107286</v>
+        <v>60.7063188733351</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="12"/>
-        <v>59.951475594395419</v>
+        <v>59.964285902071246</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="13"/>
-        <v>60.888328051331413</v>
+        <v>59.916965310027138</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="14"/>
-        <v>62.766097559381542</v>
+        <v>60.638277018116369</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="15"/>
-        <v>65.589896042650821</v>
+        <v>62.222611496929844</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="16"/>
-        <v>69.358135537028289</v>
+        <v>64.782144949557832</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="17"/>
-        <v>74.050269254232887</v>
+        <v>68.464214277363311</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="18"/>
-        <v>79.609671538738311</v>
+        <v>73.492165229215601</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="19"/>
-        <v>85.923681500881031</v>
+        <v>80.214527439947645</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="20"/>
-        <v>92.807038978482353</v>
+        <v>89.058238018709048</v>
       </c>
       <c r="T18">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>91.711018171815539</v>
+        <v>92.202706010626059</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="4"/>
-        <v>83.850330162589557</v>
+        <v>84.875914284717595</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="5"/>
-        <v>76.749296517512477</v>
+        <v>78.372509334478394</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="6"/>
-        <v>70.609163888479557</v>
+        <v>72.877480168876176</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="7"/>
-        <v>65.520040793373241</v>
+        <v>68.417522572221174</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="8"/>
-        <v>61.49899437790431</v>
+        <v>64.903397910724934</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="9"/>
-        <v>58.525638750556702</v>
+        <v>62.191006916998987</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="10"/>
-        <v>56.567716547030976</v>
+        <v>60.149684966655421</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="11"/>
-        <v>55.596853303583188</v>
+        <v>58.708400830416963</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="12"/>
-        <v>55.597050789035777</v>
+        <v>57.87609771358035</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="13"/>
-        <v>56.568290798115662</v>
+        <v>57.740608596415967</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="14"/>
-        <v>58.526536490590445</v>
+        <v>58.446975641312093</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="15"/>
-        <v>61.500131170341888</v>
+        <v>60.162993716822456</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="16"/>
-        <v>65.521307216863789</v>
+        <v>63.061086700282821</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="17"/>
-        <v>70.610433488890308</v>
+        <v>67.316841715544626</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="18"/>
-        <v>76.750434912989192</v>
+        <v>73.106101726075636</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="19"/>
-        <v>83.851204592375481</v>
+        <v>80.569223147494853</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="20"/>
-        <v>91.711506753953444</v>
+        <v>89.686818552025045</v>
       </c>
       <c r="T19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="3"/>
-        <v>90.187400284196059</v>
+        <v>91.013109535470321</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="4"/>
-        <v>81.018546167235684</v>
+        <v>82.727577504192126</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="5"/>
-        <v>72.929616323128698</v>
+        <v>75.615334765217241</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="6"/>
-        <v>66.118853505285799</v>
+        <v>69.864555644607165</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="7"/>
-        <v>60.615713868728847</v>
+        <v>65.425492013570221</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="8"/>
-        <v>56.362126227424255</v>
+        <v>62.083002710770046</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="9"/>
-        <v>53.271210143832576</v>
+        <v>59.550629237674649</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="10"/>
-        <v>51.261138017923699</v>
+        <v>57.594834291387734</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="11"/>
-        <v>50.271816581334086</v>
+        <v>56.100171474038845</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="12"/>
-        <v>50.271982248876718</v>
+        <v>55.089798078330013</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="13"/>
-        <v>51.261619743023331</v>
+        <v>54.721165634006297</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="14"/>
-        <v>53.271963219276344</v>
+        <v>55.244892484449778</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="15"/>
-        <v>56.363079803153809</v>
+        <v>56.920298234598818</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="16"/>
-        <v>60.616776139690089</v>
+        <v>59.981516124326305</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="17"/>
-        <v>66.119918390227454</v>
+        <v>64.635286243730562</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="18"/>
-        <v>72.93057110883143</v>
+        <v>71.045686046318721</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="19"/>
-        <v>81.019279521292773</v>
+        <v>79.269150613532943</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="20"/>
-        <v>90.187810018636867</v>
+        <v>89.119719096088488</v>
       </c>
       <c r="T20">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>100</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="3"/>
-        <v>88.020141762588381</v>
+        <v>89.121839840169571</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="4"/>
-        <v>77.107004795943183</v>
+        <v>79.40544701055984</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="5"/>
-        <v>67.831990888034753</v>
+        <v>71.496020137786275</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="6"/>
-        <v>60.321187916455116</v>
+        <v>65.539089060867582</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="7"/>
-        <v>54.462139255599155</v>
+        <v>61.335935917988898</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="8"/>
-        <v>50.062916644071258</v>
+        <v>58.451444171511504</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="9"/>
-        <v>46.93628283598396</v>
+        <v>56.332559586619496</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="10"/>
-        <v>44.934158752717437</v>
+        <v>54.57770364081901</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="11"/>
-        <v>43.957637567987042</v>
+        <v>53.006502274138612</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="12"/>
-        <v>43.957772574097099</v>
+        <v>51.660635743096584</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="13"/>
-        <v>44.934551319128815</v>
+        <v>50.80830013481949</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="14"/>
-        <v>46.936896524882222</v>
+        <v>50.890153325337934</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="15"/>
-        <v>50.063693712554077</v>
+        <v>52.290924371703568</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="16"/>
-        <v>54.463004886365141</v>
+        <v>55.308659132825007</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="17"/>
-        <v>60.322055663171525</v>
+        <v>60.19651611528662</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="18"/>
-        <v>67.832768906036918</v>
+        <v>67.171782574544636</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="19"/>
-        <v>77.107602370978356</v>
+        <v>76.341721136051945</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="20"/>
-        <v>88.020475633798839</v>
+        <v>87.522827440413181</v>
       </c>
       <c r="T21">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
-        <v>84.786246074808247</v>
+        <v>86.068539169781644</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="4"/>
-        <v>71.557473855251686</v>
+        <v>74.275929376926385</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="5"/>
-        <v>60.970331839788258</v>
+        <v>65.423645685108184</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="6"/>
-        <v>52.87198229544429</v>
+        <v>59.459155907744147</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="7"/>
-        <v>46.848982010150976</v>
+        <v>55.92692641358807</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="8"/>
-        <v>42.491382457108479</v>
+        <v>54.05340666926287</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="9"/>
-        <v>39.477122272377386</v>
+        <v>52.749534971763566</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="10"/>
-        <v>37.581856993413581</v>
+        <v>51.375963791393943</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="11"/>
-        <v>36.6670788268259</v>
+        <v>49.686541785983756</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="12"/>
-        <v>36.667184469987362</v>
+        <v>47.737010173104053</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="13"/>
-        <v>37.582164180088306</v>
+        <v>45.96036245369001</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="14"/>
-        <v>39.477602492350776</v>
+        <v>45.215684807107181</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="15"/>
-        <v>42.491990530175812</v>
+        <v>46.043867694709114</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="16"/>
-        <v>46.849659395829519</v>
+        <v>48.765070809500983</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="17"/>
-        <v>52.872661352380319</v>
+        <v>53.669851612811968</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="18"/>
-        <v>60.970940698647524</v>
+        <v>61.102856859953391</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="19"/>
-        <v>71.557941523732481</v>
+        <v>71.402915182018575</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="20"/>
-        <v>84.786507380783831</v>
+        <v>84.629804859489013</v>
       </c>
       <c r="T22">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="3"/>
-        <v>79.567433136464572</v>
+        <v>80.876177978031265</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="4"/>
-        <v>63.36641467677552</v>
+        <v>66.205752486633301</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="5"/>
-        <v>51.620015614679019</v>
+        <v>56.46303209307888</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="6"/>
-        <v>43.347590842711234</v>
+        <v>50.946419562037086</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="7"/>
-        <v>37.570609678460855</v>
+        <v>48.858583291578825</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="8"/>
-        <v>33.576710433346818</v>
+        <v>49.085034865579971</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="9"/>
-        <v>30.899177755326829</v>
+        <v>49.235481078843662</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="10"/>
-        <v>29.249282154200987</v>
+        <v>48.489324126696523</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="11"/>
-        <v>28.461847382656586</v>
+        <v>46.62593918604037</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="12"/>
-        <v>28.461924967751472</v>
+        <v>43.639768317618113</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="13"/>
-        <v>29.249507757024464</v>
+        <v>40.079761099767424</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="14"/>
-        <v>30.899530445255365</v>
+        <v>37.967718958649307</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="15"/>
-        <v>33.577157039878003</v>
+        <v>37.903226894733187</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="16"/>
-        <v>37.571107218552427</v>
+        <v>40.037427581620626</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="17"/>
-        <v>43.348089644526588</v>
+        <v>44.614583263062883</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="18"/>
-        <v>51.620462891165218</v>
+        <v>52.166604715419396</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="19"/>
-        <v>63.366758269500394</v>
+        <v>63.537115739548383</v>
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="20"/>
-        <v>79.567625141023058</v>
+        <v>79.593427938591944</v>
       </c>
       <c r="T23">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="3"/>
-        <v>70.117117678157825</v>
+        <v>71.230267042429887</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="4"/>
-        <v>50.7208082163665</v>
+        <v>53.207628685443126</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="5"/>
-        <v>38.795820524059152</v>
+        <v>43.275988623072394</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="6"/>
-        <v>31.327870886308631</v>
+        <v>39.004515124771103</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
-        <v>26.509286077348573</v>
+        <v>39.475502736780619</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="8"/>
-        <v>23.345813608514753</v>
+        <v>44.192174449152581</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="9"/>
-        <v>21.293744518296073</v>
+        <v>46.617506292787979</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="10"/>
-        <v>20.054396989522278</v>
+        <v>46.719373130451565</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="11"/>
-        <v>19.469252018230289</v>
+        <v>44.687582867761208</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="12"/>
-        <v>19.46930275511437</v>
+        <v>40.115837479352166</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="13"/>
-        <v>20.054544526099193</v>
+        <v>32.750697602977937</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="14"/>
-        <v>21.293975175890409</v>
+        <v>28.671747130908756</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="15"/>
-        <v>23.346105707131795</v>
+        <v>27.563490118823381</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="16"/>
-        <v>26.509611518872642</v>
+        <v>28.866488652163497</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="17"/>
-        <v>31.32819719208419</v>
+        <v>32.584178887767692</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="18"/>
-        <v>38.796113166208471</v>
+        <v>39.411669046359592</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="19"/>
-        <v>50.721033060736268</v>
+        <v>50.985401119235668</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="20"/>
-        <v>70.117243350892096</v>
+        <v>70.206758495146573</v>
       </c>
       <c r="T24">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
-        <v>50.180257542817856</v>
+        <v>50.83716575224507</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>30.603923594286833</v>
+        <v>32.118357940956969</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="5"/>
-        <v>21.514644665216785</v>
+        <v>24.428582174993167</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="6"/>
-        <v>16.658854908188527</v>
+        <v>22.319911709648537</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="7"/>
-        <v>13.79292801361845</v>
+        <v>25.846466061785996</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="8"/>
-        <v>12.003597732428119</v>
+        <v>41.590355804141446</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="9"/>
-        <v>10.875677822808578</v>
+        <v>46.322680953380519</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="10"/>
-        <v>10.205398521862691</v>
+        <v>47.082755126037199</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="11"/>
-        <v>9.891548863328417</v>
+        <v>45.288857980438181</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="12"/>
-        <v>9.8915738016075423</v>
+        <v>39.384986616960973</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="13"/>
-        <v>10.20547104168687</v>
+        <v>22.135147712715288</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="14"/>
-        <v>10.875791207304419</v>
+        <v>16.40481006983407</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="15"/>
-        <v>12.00374133398984</v>
+        <v>14.812258088542814</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="16"/>
-        <v>13.793088029009285</v>
+        <v>15.280656210111511</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="17"/>
-        <v>16.659015376294512</v>
+        <v>17.443815358724802</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="18"/>
-        <v>21.514788608982787</v>
+        <v>21.910378235197179</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="19"/>
-        <v>30.604034217882027</v>
+        <v>30.78599606929788</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="20"/>
-        <v>50.180319392193532</v>
+        <v>50.248188641111113</v>
       </c>
       <c r="T25">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>100</v>
       </c>
@@ -8733,19 +8733,19 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -8798,13 +8798,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBA3403-2904-4FEF-B6B1-A16133C4C719}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>20</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>200</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A25" si="2">A2</f>
         <v>200</v>
@@ -9036,7 +9036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -9117,7 +9117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -9198,7 +9198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -9279,7 +9279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -9360,7 +9360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -9441,7 +9441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -9522,7 +9522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -9603,7 +9603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9699,7 +9699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9756,7 +9756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9785,7 +9785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9814,7 +9814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9843,7 +9843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9872,7 +9872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9901,7 +9901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9930,7 +9930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9987,7 +9987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -10016,7 +10016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -10045,7 +10045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -10074,7 +10074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>100</v>
       </c>
